--- a/Tabel PDRB - SUMATERA SELATAN - 2024Q2 2024-10-11 15_17_00.xlsx
+++ b/Tabel PDRB - SUMATERA SELATAN - 2024Q2 2024-10-11 15_17_00.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\superi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0603E97-6BA9-4F1A-9A6D-DEE21A8B94B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7E6B3D-6C5A-4DD5-A1EC-138CD813E53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADHB" sheetId="2" r:id="rId1"/>
-    <sheet name="ADHK" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="ADHK" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Tabel PDRB - SUMATERA SELATAN - ADHB</t>
   </si>
@@ -149,13 +150,136 @@
   </si>
   <si>
     <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>Tabel 2.1. PDRB ADHB (juta Rp)</t>
+  </si>
+  <si>
+    <t>Tabel 2.2. PDRB ADHK (juta Rp)</t>
+  </si>
+  <si>
+    <t>Tabel 2.3. Distribusi Terhadap Provinsi (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.4. Distribusi Komponen Terhadap PDRB ADHB (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.5. Distribusi Komponen Terhadap PDRB ADHK (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.6. Indeks Implisit</t>
+  </si>
+  <si>
+    <t>Tabel 2.7. Indeks Implisit Kumulatif</t>
+  </si>
+  <si>
+    <t>Tabel 2.8. Pertumbuhan PDRB (Q-TO-Q), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.9. Pertumbuhan PDRB (Y-ON-Y), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.10. Pertumbuhan PDRB (C-TO-C)</t>
+  </si>
+  <si>
+    <t>Tabel 2.11. Pertumbuhan Indeks Implisit PDRB (Q-TO-Q), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.12. Pertumbuhan Indeks Implisit PDRB (Y-ON-Y), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.13. Pertumbuhan Indeks Implisit PDRB (C-TO-C), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.14. Sumber Pertumbuhan Kabupaten/Kota Terhadap PDRB Provinsi (Q-TO-Q), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.15. Sumber Pertumbuhan Kabupaten/Kota Terhadap PDRB Provinsi (Y-ON-Y), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.16. Sumber Pertumbuhan Kabupaten/Kota Terhadap PDRB Provinsi (C-TO-C), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.17. Sumber Pertumbuhan Komponen Terhadap PDRB Kabupaten/Kota/Provinsi (Q-TO-Q), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.18. Sumber Pertumbuhan Komponen Terhadap PDRB Kabupaten/Kota/Provinsi (Y-ON-Y), (persen)</t>
+  </si>
+  <si>
+    <t>Tabel 2.19. Sumber Pertumbuhan Komponen Terhadap PDRB Kabupaten/Kota/Provinsi (C-TO-C), (persen)</t>
+  </si>
+  <si>
+    <t>', 'name' =&gt; '</t>
+  </si>
+  <si>
+    <t>['id' =&gt; '</t>
+  </si>
+  <si>
+    <t>' ],</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="195">
+  <fonts count="169">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,114 +572,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -947,8 +963,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="169">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,141 +1331,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor auto="1"/>
         <bgColor auto="1"/>
@@ -1934,7 +1820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="195">
+  <borders count="168">
     <border>
       <left/>
       <right/>
@@ -2985,411 +2871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4840,7 +4321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4919,9 +4400,15 @@
     <xf numFmtId="0" fontId="69" fillId="70" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="71" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="71" fillId="72" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="73" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="74" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="75" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="73" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="74" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="75" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="76" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="77" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="77" fillId="78" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4946,15 +4433,9 @@
     <xf numFmtId="0" fontId="96" fillId="97" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="97" fillId="98" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="98" fillId="99" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="99" fillId="100" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="101" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="102" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="99" fillId="100" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="100" fillId="101" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="101" fillId="102" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="102" fillId="103" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="103" fillId="104" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="104" fillId="105" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5021,38 +4502,18 @@
     <xf numFmtId="0" fontId="165" fillId="166" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="166" fillId="167" borderId="166" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="167" fillId="168" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="168" fillId="169" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="169" fillId="170" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="170" fillId="171" borderId="170" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="171" fillId="172" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="172" fillId="173" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="173" fillId="174" borderId="173" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="174" fillId="175" borderId="174" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="175" fillId="176" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="176" fillId="177" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="177" fillId="178" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="178" fillId="179" borderId="178" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="179" fillId="180" borderId="179" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="180" fillId="181" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="181" fillId="182" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="182" fillId="183" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="183" fillId="184" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="184" fillId="185" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="185" fillId="186" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="186" fillId="187" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="187" fillId="188" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="188" fillId="189" borderId="188" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="189" fillId="190" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="190" fillId="191" borderId="190" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="191" fillId="192" borderId="191" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="192" fillId="193" borderId="192" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="193" fillId="194" borderId="193" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="194" fillId="195" borderId="194" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="194" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="194" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5333,35 +4794,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="170" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
@@ -5378,7 +4839,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="169">
         <v>98550661.251418293</v>
       </c>
       <c r="C4">
@@ -5395,7 +4856,7 @@
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="196">
+      <c r="B5" s="169">
         <v>49028162.665655211</v>
       </c>
       <c r="C5">
@@ -5412,7 +4873,7 @@
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="196">
+      <c r="B6" s="169">
         <v>8959721.7798359375</v>
       </c>
       <c r="C6">
@@ -5429,7 +4890,7 @@
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="196">
+      <c r="B7" s="169">
         <v>3342627.9742739443</v>
       </c>
       <c r="C7">
@@ -5446,7 +4907,7 @@
       <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="196">
+      <c r="B8" s="169">
         <v>5906874.6161144124</v>
       </c>
       <c r="C8">
@@ -5463,7 +4924,7 @@
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="196">
+      <c r="B9" s="169">
         <v>2391880.7539442163</v>
       </c>
       <c r="C9">
@@ -5480,7 +4941,7 @@
       <c r="A10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="196">
+      <c r="B10" s="169">
         <v>2670645.9398031179</v>
       </c>
       <c r="C10">
@@ -5497,7 +4958,7 @@
       <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="196">
+      <c r="B11" s="169">
         <v>5910407.1900604097</v>
       </c>
       <c r="C11">
@@ -5514,7 +4975,7 @@
       <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="196">
+      <c r="B12" s="169">
         <v>3799867.5244308664</v>
       </c>
       <c r="C12">
@@ -5531,7 +4992,7 @@
       <c r="A13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="196">
+      <c r="B13" s="169">
         <v>792615.28455259698</v>
       </c>
       <c r="C13">
@@ -5548,7 +5009,7 @@
       <c r="A14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="196">
+      <c r="B14" s="169">
         <v>2976082.3918277789</v>
       </c>
       <c r="C14">
@@ -5565,7 +5026,7 @@
       <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="196">
+      <c r="B15" s="169">
         <v>4401276.683157349</v>
       </c>
       <c r="C15">
@@ -5582,7 +5043,7 @@
       <c r="A16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="196">
+      <c r="B16" s="169">
         <v>2870498.4477624255</v>
       </c>
       <c r="C16">
@@ -5599,7 +5060,7 @@
       <c r="A17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="196">
+      <c r="B17" s="169">
         <v>2170949.6375739165</v>
       </c>
       <c r="C17">
@@ -5616,7 +5077,7 @@
       <c r="A18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="196">
+      <c r="B18" s="169">
         <v>6724770.6781749483</v>
       </c>
       <c r="C18">
@@ -5631,273 +5092,120 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="196">
-        <v>4668580.319415913</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="169">
+        <v>49535865.083829589</v>
       </c>
       <c r="C19">
-        <v>5136580.319415913</v>
+        <v>50003865.083829589</v>
       </c>
       <c r="D19" s="51">
-        <v>5168580.319415913</v>
+        <v>50035865.083829589</v>
       </c>
       <c r="E19" s="52">
-        <v>6840598.0660874499</v>
+        <v>50314622.658517197</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="196">
-        <v>1556190.3587590349</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="169">
+        <v>43158901.392248146</v>
       </c>
       <c r="C20">
-        <v>2024190.3587590349</v>
+        <v>43626901.392248146</v>
       </c>
       <c r="D20" s="54">
-        <v>2056190.3587590349</v>
+        <v>43658901.392248146</v>
       </c>
       <c r="E20" s="55">
-        <v>3183113.8808657788</v>
+        <v>43960609.723031394</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="196">
-        <v>49535865.083829589</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="169">
+        <v>5876963.6915814448</v>
       </c>
       <c r="C21">
-        <v>50003865.083829589</v>
+        <v>6344963.6915814448</v>
       </c>
       <c r="D21" s="57">
-        <v>50035865.083829589</v>
+        <v>6376963.6915814448</v>
       </c>
       <c r="E21" s="58">
-        <v>50314622.658517197</v>
+        <v>6354012.9354858063</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="196">
-        <v>43158901.392248146</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="169">
+        <v>-499696.32123543276</v>
       </c>
       <c r="C22">
-        <v>43626901.392248146</v>
+        <v>-31696.321235432744</v>
       </c>
       <c r="D22" s="60">
-        <v>43658901.392248146</v>
+        <v>303.67876456725668</v>
       </c>
       <c r="E22" s="61">
-        <v>43960609.723031394</v>
+        <v>512.36098094559577</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="196">
-        <v>5876963.6915814448</v>
+        <v>25</v>
+      </c>
+      <c r="B23" s="169">
+        <v>22193497.945933141</v>
       </c>
       <c r="C23">
-        <v>6344963.6915814448</v>
+        <v>22661497.945933141</v>
       </c>
       <c r="D23" s="63">
-        <v>6376963.6915814448</v>
+        <v>22693497.945933141</v>
       </c>
       <c r="E23" s="64">
-        <v>6354012.9354858063</v>
+        <v>26022081.605436172</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="196">
-        <v>-499696.32123543276</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="169">
+        <v>9441660.6192234959</v>
       </c>
       <c r="C24">
-        <v>-31696.321235432744</v>
+        <v>9909660.6192234959</v>
       </c>
       <c r="D24" s="66">
-        <v>303.67876456725668</v>
+        <v>9941660.6192234959</v>
       </c>
       <c r="E24" s="67">
-        <v>512.36098094559577</v>
+        <v>7398893.8148195762</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="196">
-        <v>22193497.945933141</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="169">
+        <v>156330824.51958534</v>
       </c>
       <c r="C25">
-        <v>22661497.945933141</v>
+        <v>156798824.51958534</v>
       </c>
       <c r="D25" s="69">
-        <v>22693497.945933141</v>
+        <v>156830824.51958534</v>
       </c>
       <c r="E25" s="70">
-        <v>26022081.605436172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="196">
-        <v>22186754.365787521</v>
-      </c>
-      <c r="C26">
-        <v>22654754.365787521</v>
-      </c>
-      <c r="D26" s="72">
-        <v>22686754.365787521</v>
-      </c>
-      <c r="E26" s="73">
-        <v>26014320.450336792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="196">
-        <v>-493256.41985438048</v>
-      </c>
-      <c r="C27">
-        <v>-25256.41985438047</v>
-      </c>
-      <c r="D27" s="75">
-        <v>6743.5801456195295</v>
-      </c>
-      <c r="E27" s="76">
-        <v>7761.1550993816418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="196">
-        <v>9441660.6192234959</v>
-      </c>
-      <c r="C28">
-        <v>9909660.6192234959</v>
-      </c>
-      <c r="D28" s="78">
-        <v>9941660.6192234959</v>
-      </c>
-      <c r="E28" s="79">
-        <v>7398893.8148195762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="196">
-        <v>9379665.837892253</v>
-      </c>
-      <c r="C29">
-        <v>9847665.837892253</v>
-      </c>
-      <c r="D29" s="81">
-        <v>9879665.837892253</v>
-      </c>
-      <c r="E29" s="82">
-        <v>7300512.3831660738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="196">
-        <v>-438005.21866875648</v>
-      </c>
-      <c r="C30">
-        <v>29994.781331243517</v>
-      </c>
-      <c r="D30" s="84">
-        <v>61994.781331243517</v>
-      </c>
-      <c r="E30" s="85">
-        <v>98381.431653502208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="196">
-        <v>-15403563.136885621</v>
-      </c>
-      <c r="C31">
-        <v>-14935563.136885621</v>
-      </c>
-      <c r="D31" s="87">
-        <v>-14903563.136885621</v>
-      </c>
-      <c r="E31" s="88">
-        <v>-20256054.568318363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="196">
-        <v>11441737.506204139</v>
-      </c>
-      <c r="C32">
-        <v>11909737.506204139</v>
-      </c>
-      <c r="D32" s="90">
-        <v>11941737.506204139</v>
-      </c>
-      <c r="E32" s="91">
-        <v>11393392.265534006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="196">
-        <v>26345300.64308976</v>
-      </c>
-      <c r="C33">
-        <v>26813300.64308976</v>
-      </c>
-      <c r="D33" s="93">
-        <v>26845300.64308976</v>
-      </c>
-      <c r="E33" s="94">
-        <v>31649446.833852369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="196">
-        <v>156330824.51958534</v>
-      </c>
-      <c r="C34">
-        <v>156798824.51958534</v>
-      </c>
-      <c r="D34" s="96">
-        <v>156830824.51958534</v>
-      </c>
-      <c r="E34" s="97">
         <v>165130861.46001828</v>
       </c>
     </row>
@@ -5907,6 +5215,425 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA1FB7A-1EC2-4659-908B-898428EC9830}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="96.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT(A1:E1)</f>
+        <v>['id' =&gt; '2.1', 'name' =&gt; 'Tabel 2.1. PDRB ADHB (juta Rp)' ],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F19" si="0">_xlfn.CONCAT(A2:E2)</f>
+        <v>['id' =&gt; '2.2', 'name' =&gt; 'Tabel 2.2. PDRB ADHK (juta Rp)' ],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.3', 'name' =&gt; 'Tabel 2.3. Distribusi Terhadap Provinsi (persen)' ],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.4', 'name' =&gt; 'Tabel 2.4. Distribusi Komponen Terhadap PDRB ADHB (persen)' ],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.5', 'name' =&gt; 'Tabel 2.5. Distribusi Komponen Terhadap PDRB ADHK (persen)' ],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="171" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.6', 'name' =&gt; 'Tabel 2.6. Indeks Implisit' ],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.7', 'name' =&gt; 'Tabel 2.7. Indeks Implisit Kumulatif' ],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.8', 'name' =&gt; 'Tabel 2.8. Pertumbuhan PDRB (Q-TO-Q), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="171" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.9', 'name' =&gt; 'Tabel 2.9. Pertumbuhan PDRB (Y-ON-Y), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.10', 'name' =&gt; 'Tabel 2.10. Pertumbuhan PDRB (C-TO-C)' ],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.11', 'name' =&gt; 'Tabel 2.11. Pertumbuhan Indeks Implisit PDRB (Q-TO-Q), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.12', 'name' =&gt; 'Tabel 2.12. Pertumbuhan Indeks Implisit PDRB (Y-ON-Y), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.13', 'name' =&gt; 'Tabel 2.13. Pertumbuhan Indeks Implisit PDRB (C-TO-C), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.14', 'name' =&gt; 'Tabel 2.14. Sumber Pertumbuhan Kabupaten/Kota Terhadap PDRB Provinsi (Q-TO-Q), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="171" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.15', 'name' =&gt; 'Tabel 2.15. Sumber Pertumbuhan Kabupaten/Kota Terhadap PDRB Provinsi (Y-ON-Y), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.16', 'name' =&gt; 'Tabel 2.16. Sumber Pertumbuhan Kabupaten/Kota Terhadap PDRB Provinsi (C-TO-C), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.17', 'name' =&gt; 'Tabel 2.17. Sumber Pertumbuhan Komponen Terhadap PDRB Kabupaten/Kota/Provinsi (Q-TO-Q), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.18', 'name' =&gt; 'Tabel 2.18. Sumber Pertumbuhan Komponen Terhadap PDRB Kabupaten/Kota/Provinsi (Y-ON-Y), (persen)' ],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; '2.19', 'name' =&gt; 'Tabel 2.19. Sumber Pertumbuhan Komponen Terhadap PDRB Kabupaten/Kota/Provinsi (C-TO-C), (persen)' ],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -5917,366 +5644,366 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.21875" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="71" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="76">
         <v>54260282.976234742</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="77">
         <v>56133325.189259179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="79">
         <v>26693147.67996667</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="80">
         <v>27913024.528941147</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="82">
         <v>4028799.1299176496</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="83">
         <v>4102123.2740821508</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="85">
         <v>2193859.0261322032</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="86">
         <v>2317592.6752060596</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="88">
         <v>3613574.6022349065</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="89">
         <v>3698493.6053874269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="91">
         <v>1647526.9007563256</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="92">
         <v>1640772.0404632248</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="94">
         <v>1789888.5818778737</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="95">
         <v>1810651.2894276571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B11" s="97">
         <v>4220157.7761255177</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="98">
         <v>4336212.1149689695</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="127">
+      <c r="B12" s="100">
         <v>2373150.1056073285</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="101">
         <v>2403526.426959102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="130">
+      <c r="B13" s="103">
         <v>768938.44517474947</v>
       </c>
-      <c r="C13" s="131">
+      <c r="C13" s="104">
         <v>782702.44334337744</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="106">
         <v>2011634.1992346637</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="107">
         <v>2079627.4351687953</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="136">
+      <c r="B15" s="109">
         <v>2858410.8924914449</v>
       </c>
-      <c r="C15" s="137">
+      <c r="C15" s="110">
         <v>2935873.8276779633</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="139">
+      <c r="B16" s="112">
         <v>2061195.636715411</v>
       </c>
-      <c r="C16" s="140">
+      <c r="C16" s="113">
         <v>2112725.5276332963</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="142">
+      <c r="B17" s="115">
         <v>1584914.4990006282</v>
       </c>
-      <c r="C17" s="143">
+      <c r="C17" s="116">
         <v>1630401.5451219464</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="145">
+      <c r="B18" s="118">
         <v>4464463.9527149899</v>
       </c>
-      <c r="C18" s="146">
+      <c r="C18" s="119">
         <v>6151254.7916196305</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="148">
+      <c r="B19" s="121">
         <v>2896020.4872626816</v>
       </c>
-      <c r="C19" s="149">
+      <c r="C19" s="122">
         <v>3719069.5097427359</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="151">
+      <c r="B20" s="124">
         <v>1568443.4654523081</v>
       </c>
-      <c r="C20" s="152">
+      <c r="C20" s="125">
         <v>2432185.2818768942</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="153" t="s">
+      <c r="A21" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="154">
+      <c r="B21" s="127">
         <v>28298755.648248535</v>
       </c>
-      <c r="C21" s="155">
+      <c r="C21" s="128">
         <v>28353245.092204839</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="157">
+      <c r="B22" s="130">
         <v>24222719.481068648</v>
       </c>
-      <c r="C22" s="158">
+      <c r="C22" s="131">
         <v>24278431.735875107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="160">
+      <c r="B23" s="133">
         <v>4076036.1671798876</v>
       </c>
-      <c r="C23" s="161">
+      <c r="C23" s="134">
         <v>4074813.3563297335</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="163">
+      <c r="B24" s="136">
         <v>1225.4668492030278</v>
       </c>
-      <c r="C24" s="164">
+      <c r="C24" s="137">
         <v>2031.82403597862</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="166">
+      <c r="B25" s="139">
         <v>21197335.504019558</v>
       </c>
-      <c r="C25" s="167">
+      <c r="C25" s="140">
         <v>23215460.807491019</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="169">
+      <c r="B26" s="142">
         <v>21192640.791560091</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="143">
         <v>23210180.194916613</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="172">
+      <c r="B27" s="145">
         <v>4694.7124594663819</v>
       </c>
-      <c r="C27" s="173">
+      <c r="C27" s="146">
         <v>5280.6125744077863</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="175">
+      <c r="B28" s="148">
         <v>5258796.7447374072</v>
       </c>
-      <c r="C28" s="176">
+      <c r="C28" s="149">
         <v>4274972.7081011543</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="178">
+      <c r="B29" s="151">
         <v>5220819.4866730347</v>
       </c>
-      <c r="C29" s="179">
+      <c r="C29" s="152">
         <v>4215811.7354884753</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="181">
+      <c r="B30" s="154">
         <v>37977.258064372363</v>
       </c>
-      <c r="C30" s="182">
+      <c r="C30" s="155">
         <v>59160.972612679267</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="183" t="s">
+      <c r="A31" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="184">
+      <c r="B31" s="157">
         <v>-13550976.9529857</v>
       </c>
-      <c r="C31" s="185">
+      <c r="C31" s="158">
         <v>-16149161.15161296</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="187">
+      <c r="B32" s="160">
         <v>6299421.0399139253</v>
       </c>
-      <c r="C32" s="188">
+      <c r="C32" s="161">
         <v>5698456.272706137</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="189" t="s">
+      <c r="A33" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="190">
+      <c r="B33" s="163">
         <v>19850397.992899626</v>
       </c>
-      <c r="C33" s="191">
+      <c r="C33" s="164">
         <v>21847617.424319096</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="192" t="s">
+      <c r="A34" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="193">
+      <c r="B34" s="166">
         <v>90997204.349344552</v>
       </c>
-      <c r="C34" s="194">
+      <c r="C34" s="167">
         <v>95061585.390018463</v>
       </c>
     </row>
